--- a/src/test/java/com/inetbanking/testdata/Testdata.xlsx
+++ b/src/test/java/com/inetbanking/testdata/Testdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\udayk\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\udayk\eclipse-workspace\sample\src\test\java\com\inetbanking\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067F7780-439A-4498-B977-288DFFBA61CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABDCCDC-46E1-4DD7-A948-B9F78415A957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C1B10F82-7DFC-4BB7-B094-93848A8B68C2}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Username</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>vAbejat</t>
+  </si>
+  <si>
+    <t>mngr416902</t>
+  </si>
+  <si>
+    <t>ujUruqA</t>
   </si>
 </sst>
 </file>
@@ -423,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F458D7E-4E22-40CC-82B4-F02622A7AFE9}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
+      <selection activeCell="A5" sqref="A5:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,6 +481,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/java/com/inetbanking/testdata/Testdata.xlsx
+++ b/src/test/java/com/inetbanking/testdata/Testdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\udayk\eclipse-workspace\sample\src\test\java\com\inetbanking\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABDCCDC-46E1-4DD7-A948-B9F78415A957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D980F9D-D204-49E0-8D69-32DAF8944452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C1B10F82-7DFC-4BB7-B094-93848A8B68C2}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Username</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>ujUruqA</t>
+  </si>
+  <si>
+    <t>mngr433066</t>
+  </si>
+  <si>
+    <t>AbaqAma</t>
   </si>
 </sst>
 </file>
@@ -432,7 +438,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,10 +457,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
